--- a/additional.xlsx
+++ b/additional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BCC681-2D77-4A0E-9C3D-A176C9DBED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477F1F3-6D9D-4744-9B2E-F041B6EC719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1A8E9C0-F336-489D-AD35-B27B6C81F269}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>team</t>
   </si>
@@ -399,6 +399,204 @@
   </si>
   <si>
     <t>Avai</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Pacos de Ferreira</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>NEC Nijmegen</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Volendam</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Melbourne City</t>
+  </si>
+  <si>
+    <t>Central Coast Mariners</t>
+  </si>
+  <si>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>Western Sydney Wanderers</t>
+  </si>
+  <si>
+    <t>Sydney FC</t>
+  </si>
+  <si>
+    <t>Wellington Phoenix</t>
+  </si>
+  <si>
+    <t>Western United</t>
+  </si>
+  <si>
+    <t>Brisbane Roar</t>
+  </si>
+  <si>
+    <t>Perth Glory</t>
+  </si>
+  <si>
+    <t>Newcastle Jets</t>
+  </si>
+  <si>
+    <t>Melbourne Victory</t>
+  </si>
+  <si>
+    <t>Macarthur FC</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Oostende</t>
+  </si>
+  <si>
+    <t>Zulte Waregem</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
   </si>
 </sst>
 </file>
@@ -764,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65ECF86-299C-4F64-AE70-6FFA1E27EE7D}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1729,8 +1927,536 @@
         <v>18</v>
       </c>
     </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B119" xr:uid="{E65ECF86-299C-4F64-AE70-6FFA1E27EE7D}"/>
+  <autoFilter ref="A1:B167" xr:uid="{E65ECF86-299C-4F64-AE70-6FFA1E27EE7D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>